--- a/public/input.xlsx
+++ b/public/input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\Backend\exam\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51F9FEF7-92FF-4056-A075-792DB34EE1A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42C557B3-149D-4B66-90EA-7917066533F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{95D14BF0-006E-4E26-8CD3-1143D085AE2E}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="26">
   <si>
     <t>STT</t>
   </si>
@@ -56,27 +56,15 @@
     <t>Mail</t>
   </si>
   <si>
-    <t>Đơn vị</t>
-  </si>
-  <si>
     <t>Quê quán</t>
   </si>
   <si>
-    <t>Nguyễn Hữu Tiến</t>
-  </si>
-  <si>
-    <t>Nam</t>
-  </si>
-  <si>
     <t>0932375416</t>
   </si>
   <si>
     <t>nguyentienht1910@gmail.com</t>
   </si>
   <si>
-    <t>Pháo binh</t>
-  </si>
-  <si>
     <t>Hà Tĩnh</t>
   </si>
   <si>
@@ -90,13 +78,49 @@
   </si>
   <si>
     <t>0932375420</t>
+  </si>
+  <si>
+    <t>Trần Minh Hòa</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Tuyết</t>
+  </si>
+  <si>
+    <t>Nguyễn Trung Anh</t>
+  </si>
+  <si>
+    <t>Nguyễn Nhật Thành</t>
+  </si>
+  <si>
+    <t>Trần Đình Quyền</t>
+  </si>
+  <si>
+    <t>Loại quân nhân</t>
+  </si>
+  <si>
+    <t>OFFICER</t>
+  </si>
+  <si>
+    <t>PROFESSIONAL</t>
+  </si>
+  <si>
+    <t>MALE</t>
+  </si>
+  <si>
+    <t>FEMALE</t>
+  </si>
+  <si>
+    <t>OTHER</t>
+  </si>
+  <si>
+    <t>SOLDIER</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -121,6 +145,18 @@
       <charset val="163"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFBCBEC4"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFB3AE60"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -143,11 +179,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -483,24 +525,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40070E51-BAA3-4FA7-95C2-B49DD6CDA9AC}">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:P6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="4.88671875" customWidth="1"/>
-    <col min="2" max="2" width="14.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.88671875" style="2"/>
     <col min="5" max="5" width="11" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="25.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="8.88671875" style="2"/>
+    <col min="7" max="7" width="13.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.88671875" style="2"/>
+    <col min="16" max="16" width="13.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -520,144 +564,175 @@
         <v>5</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>7</v>
-      </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="1">
+        <v>37699</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="1">
-        <v>38279</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="G2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>13</v>
+      <c r="K2" s="4"/>
+      <c r="O2" t="s">
+        <v>22</v>
+      </c>
+      <c r="P2" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C3" s="1">
         <v>38280</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>13</v>
+      <c r="K3" s="5"/>
+      <c r="O3" t="s">
+        <v>23</v>
+      </c>
+      <c r="P3" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C4" s="1">
         <v>38281</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>13</v>
+      <c r="K4" s="5"/>
+      <c r="O4" t="s">
+        <v>24</v>
+      </c>
+      <c r="P4" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C5" s="1">
         <v>38282</v>
       </c>
       <c r="D5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="K5" s="5"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C6" s="1">
         <v>38283</v>
       </c>
       <c r="D6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="K6" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576" xr:uid="{F27292DC-56F9-49D6-9AED-B8A6CD168096}">
+      <formula1>$P$2:$P$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576" xr:uid="{F80E3F7B-6DA6-4C4A-A9B1-EC69735BBF79}">
+      <formula1>$O$2:$O$4</formula1>
+    </dataValidation>
+  </dataValidations>
   <hyperlinks>
     <hyperlink ref="F2" r:id="rId1" xr:uid="{BCD6CDAF-1977-4ACB-85EC-A13F252898FC}"/>
     <hyperlink ref="F3" r:id="rId2" xr:uid="{26834188-EF03-47CD-9463-8E0DC867DC47}"/>
@@ -666,5 +741,6 @@
     <hyperlink ref="F6" r:id="rId5" xr:uid="{0B6304BA-B780-4B69-BA71-2C54A743A310}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
--- a/public/input.xlsx
+++ b/public/input.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\Backend\exam\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42C557B3-149D-4B66-90EA-7917066533F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{697373BD-A18D-4AC3-BB7A-F1F56401F2F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{95D14BF0-006E-4E26-8CD3-1143D085AE2E}"/>
   </bookViews>
@@ -528,7 +528,7 @@
   <dimension ref="A1:P6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="N2" sqref="N2:P4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
